--- a/docs/performance/computation_est.xlsx
+++ b/docs/performance/computation_est.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ROUND</t>
   </si>
   <si>
-    <t>ELAPSED_TIME</t>
+    <t>ELAPSED_TIME (sec)</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
@@ -131,11 +134,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ELAPSED_TIME</c:v>
+                  <c:v>ELAPSED_TIME (sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -200,7 +203,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$7</c:f>
+              <c:f>Sheet1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -224,7 +227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1009,13 +1012,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1303,63 +1306,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.26</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>8.81</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>16.23</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>29.03</v>
       </c>
     </row>

--- a/docs/performance/computation_est.xlsx
+++ b/docs/performance/computation_est.xlsx
@@ -29,10 +29,10 @@
     <t>ROUND</t>
   </si>
   <si>
-    <t>ELAPSED_TIME (sec)</t>
+    <t>NR</t>
   </si>
   <si>
-    <t>NR</t>
+    <t>AVG_ROUND_TIME (sec)</t>
   </si>
 </sst>
 </file>
@@ -84,12 +84,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,7 +141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ELAPSED_TIME (sec)</c:v>
+                  <c:v>AVG_ROUND_TIME (sec)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -229,22 +232,22 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.26</c:v>
+                  <c:v>5.574681</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.81</c:v>
+                  <c:v>8.8745840000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.23</c:v>
+                  <c:v>11.944977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.350000000000001</c:v>
+                  <c:v>14.276061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.03</c:v>
+                  <c:v>19.220217000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,7 +343,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1315,19 +1318,19 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -1337,8 +1340,8 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>7.26</v>
+      <c r="D3" s="3">
+        <v>5.574681</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -1348,8 +1351,8 @@
       <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>8.81</v>
+      <c r="D4" s="3">
+        <v>8.8745840000000005</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1359,8 +1362,8 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="1">
-        <v>16.23</v>
+      <c r="D5" s="3">
+        <v>11.944977</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1370,8 +1373,8 @@
       <c r="C6" s="1">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
-        <v>18.350000000000001</v>
+      <c r="D6" s="3">
+        <v>14.276061</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1381,8 +1384,8 @@
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="1">
-        <v>29.03</v>
+      <c r="D7" s="3">
+        <v>19.220217000000002</v>
       </c>
     </row>
   </sheetData>

--- a/docs/performance/computation_est.xlsx
+++ b/docs/performance/computation_est.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -93,6 +93,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,16 +1018,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1309,20 +1312,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>5.574681</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>8.8745840000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>11.944977</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>14.276061</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -1386,6 +1390,22 @@
       </c>
       <c r="D7" s="3">
         <v>19.220217000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="4">
+        <f>0.1609*B9^4-1.6942*B9^3+6.0274*B9^2-5.3367*B9+6.4172</f>
+        <v>14455546.747199997</v>
+      </c>
+      <c r="E9" s="4">
+        <f>D9/3600/24</f>
+        <v>167.30956883333332</v>
       </c>
     </row>
   </sheetData>
